--- a/SFE - InternalEnergy/LUKE_T50_P200.xlsx
+++ b/SFE - InternalEnergy/LUKE_T50_P200.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalUserData\User-data\sliczno1\GitHub\Parameter_fitting_casadi\SFE - EmptySpace\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalUserData\User-data\sliczno1\GitHub\Parameter_fitting_casadi\SFE - InternalEnergy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AA2B42-5D24-44D1-BD13-9CA6A6395540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB91B66-9916-4998-9FD0-8EC15368EFB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{256936A8-8396-481A-AD3B-80F1FE95600A}"/>
+    <workbookView xWindow="38280" yWindow="-7230" windowWidth="16440" windowHeight="28440" xr2:uid="{256936A8-8396-481A-AD3B-80F1FE95600A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -88,8 +88,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -105,6 +106,2050 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mass g</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$3:$G$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>46.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>48.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>50.7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>52.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>54.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>56.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>59.3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>60.3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>61.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>63.9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>64.7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>65.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>65.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>66.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>67.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>67.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5AB1-4CA6-BABC-A31833668858}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="591994256"/>
+        <c:axId val="591988016"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="591994256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="591988016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="591988016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="591994256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$4:$I$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.2000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.5999999999999979</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6999999999999957</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.9000000000000057</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5999999999999943</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.3000000000000043</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.1000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.1999999999999957</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.8999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.2000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.2999999999999972</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.1000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.3999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.80000000000000426</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.59999999999999432</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.70000000000000284</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.59999999999999432</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.60000000000000853</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5E75-45B3-831D-64CE9FF87DA0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="756357824"/>
+        <c:axId val="756352000"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="756357824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="756352000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="756352000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="756357824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7015976F-47B9-B155-DBB5-B5EC89786821}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>431523</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>679174</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>74543</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BFAF378-2ECC-86FE-630F-30F851358575}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -404,15 +2449,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4DA0759-9E70-497D-A8EA-D5D21CE3CE80}">
-  <dimension ref="C2:H33"/>
+  <dimension ref="C2:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>3</v>
       </c>
@@ -432,7 +2477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C3">
         <v>50</v>
       </c>
@@ -442,368 +2487,477 @@
       <c r="E3">
         <v>762.42629999999997</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>0</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>0</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="F4">
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F4" s="1">
         <v>5</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>1.8</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="F5">
+      <c r="I4" s="1">
+        <f>G4-G3</f>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F5" s="1">
         <v>10</v>
       </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-      <c r="H5">
+      <c r="G5" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="H5" s="1">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="F6">
+      <c r="I5" s="1">
+        <f t="shared" ref="I5:I33" si="0">G5-G4</f>
+        <v>2.9000000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F6" s="1">
         <v>15</v>
       </c>
-      <c r="G6">
-        <v>8.6</v>
-      </c>
-      <c r="H6">
+      <c r="G6" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="H6" s="1">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="F7">
+      <c r="I6" s="1">
+        <f t="shared" si="0"/>
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F7" s="1">
         <v>20</v>
       </c>
-      <c r="G7">
-        <v>13.7</v>
-      </c>
-      <c r="H7">
+      <c r="G7" s="1">
+        <v>15.1</v>
+      </c>
+      <c r="H7" s="1">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="F8">
+      <c r="I7" s="1">
+        <f t="shared" si="0"/>
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F8" s="1">
         <v>25</v>
       </c>
-      <c r="G8">
-        <v>18.3</v>
-      </c>
-      <c r="H8">
+      <c r="G8" s="1">
+        <v>21.3</v>
+      </c>
+      <c r="H8" s="1">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="F9">
+      <c r="I8" s="1">
+        <f t="shared" si="0"/>
+        <v>6.2000000000000011</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F9" s="1">
         <v>30</v>
       </c>
-      <c r="G9">
-        <v>22.3</v>
-      </c>
-      <c r="H9">
+      <c r="G9" s="1">
+        <v>26.9</v>
+      </c>
+      <c r="H9" s="1">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="F10">
+      <c r="I9" s="1">
+        <f t="shared" si="0"/>
+        <v>5.5999999999999979</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F10" s="1">
         <v>35</v>
       </c>
-      <c r="G10">
-        <v>26.4</v>
-      </c>
-      <c r="H10">
+      <c r="G10" s="1">
+        <v>30.1</v>
+      </c>
+      <c r="H10" s="1">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="F11">
+      <c r="I10" s="1">
+        <f t="shared" si="0"/>
+        <v>3.2000000000000028</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F11" s="1">
         <v>40</v>
       </c>
-      <c r="G11">
-        <v>30.2</v>
-      </c>
-      <c r="H11">
+      <c r="G11" s="1">
+        <v>33.1</v>
+      </c>
+      <c r="H11" s="1">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="F12">
+      <c r="I11" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F12" s="1">
         <v>45</v>
       </c>
-      <c r="G12">
-        <v>33.799999999999997</v>
-      </c>
-      <c r="H12">
+      <c r="G12" s="1">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="H12" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="F13">
+      <c r="I12" s="1">
+        <f t="shared" si="0"/>
+        <v>2.6999999999999957</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F13" s="1">
         <v>50</v>
       </c>
-      <c r="G13">
-        <f>G12+3.5</f>
-        <v>37.299999999999997</v>
-      </c>
-      <c r="H13">
+      <c r="G13" s="1">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="H13" s="1">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="F14">
+      <c r="I13" s="1">
+        <f t="shared" si="0"/>
+        <v>2.9000000000000057</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F14" s="1">
         <v>55</v>
       </c>
-      <c r="G14">
-        <f>G12+7.1</f>
-        <v>40.9</v>
-      </c>
-      <c r="H14">
+      <c r="G14" s="1">
+        <v>41.3</v>
+      </c>
+      <c r="H14" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="F15">
+      <c r="I14" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999943</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F15" s="1">
         <v>60</v>
       </c>
-      <c r="G15">
-        <f>G12+10.4</f>
-        <v>44.199999999999996</v>
-      </c>
-      <c r="H15">
+      <c r="G15" s="1">
+        <v>43.8</v>
+      </c>
+      <c r="H15" s="1">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="F16">
+      <c r="I15" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F16" s="1">
         <v>65</v>
       </c>
-      <c r="G16">
-        <f>G12+13</f>
-        <v>46.8</v>
-      </c>
-      <c r="H16">
+      <c r="G16" s="1">
+        <v>46.1</v>
+      </c>
+      <c r="H16" s="1">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F17">
+      <c r="I16" s="1">
+        <f t="shared" si="0"/>
+        <v>2.3000000000000043</v>
+      </c>
+    </row>
+    <row r="17" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F17" s="1">
         <v>70</v>
       </c>
-      <c r="G17">
-        <f>G12+15.3</f>
-        <v>49.099999999999994</v>
-      </c>
-      <c r="H17">
+      <c r="G17" s="1">
+        <v>48.2</v>
+      </c>
+      <c r="H17" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F18">
+      <c r="I17" s="1">
+        <f t="shared" si="0"/>
+        <v>2.1000000000000014</v>
+      </c>
+    </row>
+    <row r="18" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F18" s="1">
         <v>75</v>
       </c>
-      <c r="G18">
-        <f>G12 +17.1</f>
-        <v>50.9</v>
-      </c>
-      <c r="H18">
+      <c r="G18" s="1">
+        <v>50.7</v>
+      </c>
+      <c r="H18" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="19" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F19">
+      <c r="I18" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="19" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F19" s="1">
         <v>80</v>
       </c>
-      <c r="G19">
-        <f>G12+18.8</f>
-        <v>52.599999999999994</v>
-      </c>
-      <c r="H19">
+      <c r="G19" s="1">
+        <v>52.9</v>
+      </c>
+      <c r="H19" s="1">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="20" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F20">
+      <c r="I19" s="1">
+        <f t="shared" si="0"/>
+        <v>2.1999999999999957</v>
+      </c>
+    </row>
+    <row r="20" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F20" s="1">
         <v>85</v>
       </c>
-      <c r="G20">
-        <f>G12+20.2</f>
-        <v>54</v>
-      </c>
-      <c r="H20">
+      <c r="G20" s="1">
+        <v>54.8</v>
+      </c>
+      <c r="H20" s="1">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="21" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F21">
+      <c r="I20" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8999999999999986</v>
+      </c>
+    </row>
+    <row r="21" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F21" s="1">
         <v>90</v>
       </c>
-      <c r="G21">
-        <f>G12+21.6</f>
-        <v>55.4</v>
-      </c>
-      <c r="H21">
+      <c r="G21" s="1">
+        <v>56.8</v>
+      </c>
+      <c r="H21" s="1">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="22" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F22">
+      <c r="I21" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F22" s="1">
         <v>95</v>
       </c>
-      <c r="G22">
-        <f>G12+22.8</f>
-        <v>56.599999999999994</v>
-      </c>
-      <c r="H22">
+      <c r="G22" s="1">
+        <f>G12+22.2</f>
+        <v>58</v>
+      </c>
+      <c r="H22" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="23" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F23">
+      <c r="I22" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2000000000000028</v>
+      </c>
+    </row>
+    <row r="23" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F23" s="1">
         <v>100</v>
       </c>
-      <c r="G23">
-        <f>G12+24</f>
-        <v>57.8</v>
-      </c>
-      <c r="H23">
+      <c r="G23" s="1">
+        <f>G12+23.5</f>
+        <v>59.3</v>
+      </c>
+      <c r="H23" s="1">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="24" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F24">
+      <c r="I23" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2999999999999972</v>
+      </c>
+    </row>
+    <row r="24" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F24" s="1">
         <v>105</v>
       </c>
-      <c r="G24">
-        <f>G12+24.8</f>
-        <v>58.599999999999994</v>
-      </c>
-      <c r="H24">
+      <c r="G24" s="1">
+        <f>G12+24.5</f>
+        <v>60.3</v>
+      </c>
+      <c r="H24" s="1">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="25" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F25">
+      <c r="I24" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F25" s="1">
         <v>110</v>
       </c>
-      <c r="G25">
-        <f>G12+26</f>
-        <v>59.8</v>
-      </c>
-      <c r="H25">
+      <c r="G25" s="1">
+        <v>61.4</v>
+      </c>
+      <c r="H25" s="1">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="26" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F26">
+      <c r="I25" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000014</v>
+      </c>
+    </row>
+    <row r="26" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F26" s="1">
         <v>115</v>
       </c>
-      <c r="G26">
-        <f>G12+27.1</f>
-        <v>60.9</v>
-      </c>
-      <c r="H26">
+      <c r="G26" s="1">
+        <f>G12+26.7</f>
+        <v>62.5</v>
+      </c>
+      <c r="H26" s="1">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="27" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F27">
+      <c r="I26" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000014</v>
+      </c>
+    </row>
+    <row r="27" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F27" s="1">
         <v>120</v>
       </c>
-      <c r="G27">
-        <f>G12+28.3</f>
-        <v>62.099999999999994</v>
-      </c>
-      <c r="H27">
+      <c r="G27" s="1">
+        <f>G12+28.1</f>
+        <v>63.9</v>
+      </c>
+      <c r="H27" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="28" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F28">
+      <c r="I27" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3999999999999986</v>
+      </c>
+    </row>
+    <row r="28" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F28" s="1">
         <v>125</v>
       </c>
-      <c r="G28">
-        <f>G12+29.2</f>
-        <v>63</v>
-      </c>
-      <c r="H28">
+      <c r="G28" s="1">
+        <v>64.7</v>
+      </c>
+      <c r="H28" s="1">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="29" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F29">
+      <c r="I28" s="1">
+        <f t="shared" si="0"/>
+        <v>0.80000000000000426</v>
+      </c>
+    </row>
+    <row r="29" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F29" s="1">
         <v>130</v>
       </c>
-      <c r="G29">
-        <f>G12+30.3</f>
-        <v>64.099999999999994</v>
-      </c>
-      <c r="H29">
+      <c r="G29" s="1">
+        <v>65.2</v>
+      </c>
+      <c r="H29" s="1">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="30" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F30">
+      <c r="I29" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F30" s="1">
         <v>135</v>
       </c>
-      <c r="G30">
-        <f>G12+31.3</f>
-        <v>65.099999999999994</v>
-      </c>
-      <c r="H30">
+      <c r="G30" s="1">
+        <v>65.8</v>
+      </c>
+      <c r="H30" s="1">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="31" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F31">
+      <c r="I30" s="1">
+        <f t="shared" si="0"/>
+        <v>0.59999999999999432</v>
+      </c>
+    </row>
+    <row r="31" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F31" s="1">
         <v>140</v>
       </c>
-      <c r="G31">
-        <f>G12+32.2</f>
-        <v>66</v>
-      </c>
-      <c r="H31">
+      <c r="G31" s="1">
+        <v>66.5</v>
+      </c>
+      <c r="H31" s="1">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="32" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F32">
+      <c r="I31" s="1">
+        <f t="shared" si="0"/>
+        <v>0.70000000000000284</v>
+      </c>
+    </row>
+    <row r="32" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F32" s="1">
         <v>145</v>
       </c>
-      <c r="G32">
-        <f>G12+33.1</f>
-        <v>66.900000000000006</v>
-      </c>
-      <c r="H32">
+      <c r="G32" s="1">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="H32" s="1">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="33" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F33">
+      <c r="I32" s="1">
+        <f t="shared" si="0"/>
+        <v>0.59999999999999432</v>
+      </c>
+    </row>
+    <row r="33" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F33" s="1">
         <v>150</v>
       </c>
-      <c r="G33">
-        <f>G12+33.9</f>
-        <v>67.699999999999989</v>
-      </c>
-      <c r="H33">
+      <c r="G33" s="1">
+        <v>67.7</v>
+      </c>
+      <c r="H33" s="1">
         <v>0.41</v>
       </c>
+      <c r="I33" s="1">
+        <f t="shared" si="0"/>
+        <v>0.60000000000000853</v>
+      </c>
+    </row>
+    <row r="35" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="I35" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/SFE - InternalEnergy/LUKE_T50_P200.xlsx
+++ b/SFE - InternalEnergy/LUKE_T50_P200.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalUserData\User-data\sliczno1\GitHub\Parameter_fitting_casadi\SFE - InternalEnergy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB91B66-9916-4998-9FD0-8EC15368EFB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE305FF-E0EA-4952-B648-1767BAB1FE5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-7230" windowWidth="16440" windowHeight="28440" xr2:uid="{256936A8-8396-481A-AD3B-80F1FE95600A}"/>
+    <workbookView xWindow="19245" yWindow="3375" windowWidth="34485" windowHeight="21450" xr2:uid="{256936A8-8396-481A-AD3B-80F1FE95600A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -350,16 +350,16 @@
                   <c:v>48.2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>50.7</c:v>
+                  <c:v>50.2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>52.9</c:v>
+                  <c:v>52.4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>54.8</c:v>
+                  <c:v>54.3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>56.8</c:v>
+                  <c:v>56.3</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>58</c:v>
@@ -377,25 +377,25 @@
                   <c:v>62.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>63.9</c:v>
+                  <c:v>63.4</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>64.2</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>64.7</c:v>
                 </c:pt>
-                <c:pt idx="26">
-                  <c:v>65.2</c:v>
-                </c:pt>
                 <c:pt idx="27">
-                  <c:v>65.8</c:v>
+                  <c:v>65.3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>66.5</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>67.099999999999994</c:v>
+                  <c:v>66.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>67.7</c:v>
+                  <c:v>67.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -720,7 +720,7 @@
                   <c:v>2.1000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>2.1999999999999957</c:v>
@@ -732,7 +732,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.2000000000000028</c:v>
+                  <c:v>1.7000000000000028</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1.2999999999999972</c:v>
@@ -747,7 +747,7 @@
                   <c:v>1.1000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.3999999999999986</c:v>
+                  <c:v>0.89999999999999858</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.80000000000000426</c:v>
@@ -2115,16 +2115,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>431523</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>66261</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>696566</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>115956</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>679174</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>74543</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>182217</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>124238</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2451,8 +2451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4DA0759-9E70-497D-A8EA-D5D21CE3CE80}">
   <dimension ref="C2:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2713,14 +2713,14 @@
         <v>75</v>
       </c>
       <c r="G18" s="1">
-        <v>50.7</v>
+        <v>50.2</v>
       </c>
       <c r="H18" s="1">
         <v>0.4</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="6:9" x14ac:dyDescent="0.2">
@@ -2728,7 +2728,7 @@
         <v>80</v>
       </c>
       <c r="G19" s="1">
-        <v>52.9</v>
+        <v>52.4</v>
       </c>
       <c r="H19" s="1">
         <v>0.39</v>
@@ -2743,7 +2743,7 @@
         <v>85</v>
       </c>
       <c r="G20" s="1">
-        <v>54.8</v>
+        <v>54.3</v>
       </c>
       <c r="H20" s="1">
         <v>0.37</v>
@@ -2758,7 +2758,7 @@
         <v>90</v>
       </c>
       <c r="G21" s="1">
-        <v>56.8</v>
+        <v>56.3</v>
       </c>
       <c r="H21" s="1">
         <v>0.38</v>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="I22" s="1">
         <f t="shared" si="0"/>
-        <v>1.2000000000000028</v>
+        <v>1.7000000000000028</v>
       </c>
     </row>
     <row r="23" spans="6:9" x14ac:dyDescent="0.2">
@@ -2852,15 +2852,15 @@
         <v>120</v>
       </c>
       <c r="G27" s="1">
-        <f>G12+28.1</f>
-        <v>63.9</v>
+        <f>G12+28.1-0.5</f>
+        <v>63.4</v>
       </c>
       <c r="H27" s="1">
         <v>0.4</v>
       </c>
       <c r="I27" s="1">
         <f t="shared" si="0"/>
-        <v>1.3999999999999986</v>
+        <v>0.89999999999999858</v>
       </c>
     </row>
     <row r="28" spans="6:9" x14ac:dyDescent="0.2">
@@ -2868,7 +2868,8 @@
         <v>125</v>
       </c>
       <c r="G28" s="1">
-        <v>64.7</v>
+        <f>64.7-0.5</f>
+        <v>64.2</v>
       </c>
       <c r="H28" s="1">
         <v>0.37</v>
@@ -2883,7 +2884,8 @@
         <v>130</v>
       </c>
       <c r="G29" s="1">
-        <v>65.2</v>
+        <f>65.2-0.5</f>
+        <v>64.7</v>
       </c>
       <c r="H29" s="1">
         <v>0.39</v>
@@ -2898,7 +2900,8 @@
         <v>135</v>
       </c>
       <c r="G30" s="1">
-        <v>65.8</v>
+        <f>65.8-0.5</f>
+        <v>65.3</v>
       </c>
       <c r="H30" s="1">
         <v>0.41</v>
@@ -2913,7 +2916,8 @@
         <v>140</v>
       </c>
       <c r="G31" s="1">
-        <v>66.5</v>
+        <f>66.5-0.5</f>
+        <v>66</v>
       </c>
       <c r="H31" s="1">
         <v>0.42</v>
@@ -2928,7 +2932,8 @@
         <v>145</v>
       </c>
       <c r="G32" s="1">
-        <v>67.099999999999994</v>
+        <f>67.1-0.5</f>
+        <v>66.599999999999994</v>
       </c>
       <c r="H32" s="1">
         <v>0.41</v>
@@ -2943,7 +2948,7 @@
         <v>150</v>
       </c>
       <c r="G33" s="1">
-        <v>67.7</v>
+        <v>67.2</v>
       </c>
       <c r="H33" s="1">
         <v>0.41</v>
